--- a/CORP FINANCE/Corp.Finance.UTS.Erwin.Sanjaya.xlsx
+++ b/CORP FINANCE/Corp.Finance.UTS.Erwin.Sanjaya.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Erwin\MANAJEMEN\CORP FINANCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2892F-D359-4D4E-9086-7E92E6C4B03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3593D-63F9-4659-B802-6073D5CD3E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="840" windowWidth="11955" windowHeight="11370" activeTab="7" xr2:uid="{9F5CD90E-0A50-4201-9AAF-F8BAF6DD344D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F5CD90E-0A50-4201-9AAF-F8BAF6DD344D}"/>
   </bookViews>
   <sheets>
     <sheet name="Soal" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="144">
   <si>
     <t>TAHUN</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Keputusan beli (YTM to No3)</t>
   </si>
   <si>
-    <t>Tidak (Dibawah %No3)</t>
-  </si>
-  <si>
     <t>YTM terbesar adalah PT CESILY (5.088%)</t>
   </si>
   <si>
@@ -424,6 +421,60 @@
   </si>
   <si>
     <t>EAR</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tidak (Dibawah %[No3])</t>
+  </si>
+  <si>
+    <t>Setiap 1 rupiah hutang lancarnya dijamin oleh 1,4 rupiah aktiva lancar nya</t>
+  </si>
+  <si>
+    <t>Setiap 1 rupiah dari total hutang dijamin oleh 1,6 rupiah dari total asset nya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laba yang dihasilkan berjumlah 50% dari modal </t>
+  </si>
+  <si>
+    <t>Laba yang dihasilkan adalah 20% dari total modal ditambah hutang jangka panjangnya</t>
+  </si>
+  <si>
+    <t>Laba bersih yang dihasilkan adalah 15% dari ekuitas (modal + hutang)</t>
+  </si>
+  <si>
+    <t>Perbandingan antara penjualan dengan piutang adalah 4,25 : 1</t>
+  </si>
+  <si>
+    <t>Perbandingan antara harga pokok dengan persediaan barang adalah 1,66 : 1</t>
+  </si>
+  <si>
+    <t>Penjualan yang dihasilkan oleh perusahaan adalah 50% dari total aktiva</t>
+  </si>
+  <si>
+    <t>Hutang peruhsaan adalah 62,5% dari total aktiva nya</t>
+  </si>
+  <si>
+    <t>Hutang peruhsaan adalah 166,67% dari total hutang nya</t>
+  </si>
+  <si>
+    <t>Perbandingan antara laba sebelum pajak dengan bunga adalah 5,285 : 1</t>
+  </si>
+  <si>
+    <t>Laba bersih yang dihasilkan adalah 10% dari total penjualan</t>
+  </si>
+  <si>
+    <t>Laba bersih yang dihasilkan adalah 41.17% dari total penjualan</t>
+  </si>
+  <si>
+    <t>Laba bersih yang dihasilkan adalah 5% dari total aktiva</t>
+  </si>
+  <si>
+    <t>Deviden yang diberikan adalah 66,66% dari laba bersih yang dihasilkan</t>
+  </si>
+  <si>
+    <t>Perbandingan antara laba ditahan dengan laba bersih adalah 3,33 : 1</t>
   </si>
 </sst>
 </file>
@@ -432,7 +483,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -670,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -733,6 +784,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,11 +841,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F47CF61-C8B1-49A6-872B-AFF0558B056A}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,16 +1171,16 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="43">
         <v>2021</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="F2" s="43">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="F2" s="46">
         <v>20.21</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1923,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DAA453-7092-4A43-B785-196D38DD7770}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,20 +1984,17 @@
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>2021</v>
       </c>
-      <c r="D1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>46</v>
       </c>
@@ -1959,12 +2005,11 @@
         <f>Soal!B23/Soal!B39</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="D3" s="22">
-        <f>Soal!C23/Soal!C39</f>
-        <v>1.3571428571428572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>48</v>
       </c>
@@ -1975,12 +2020,11 @@
         <f>Soal!B33/Soal!B41</f>
         <v>1.6</v>
       </c>
-      <c r="D4" s="22">
-        <f>Soal!C33/Soal!C41</f>
-        <v>1.6111111111111112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>50</v>
       </c>
@@ -1991,12 +2035,11 @@
         <f>Soal!B46/Soal!B47*100</f>
         <v>50</v>
       </c>
-      <c r="D5" s="22">
-        <f>Soal!C46/Soal!C47*100</f>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>52</v>
       </c>
@@ -2007,9 +2050,11 @@
         <f>Soal!D10/(Soal!B40+Soal!B47)*100</f>
         <v>20.555555555555554</v>
       </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>54</v>
       </c>
@@ -2020,15 +2065,16 @@
         <f>Soal!D14/Soal!B47*100</f>
         <v>15</v>
       </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>56</v>
       </c>
@@ -2039,9 +2085,11 @@
         <f>Soal!C3/Soal!B21</f>
         <v>4.25</v>
       </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>57</v>
       </c>
@@ -2052,9 +2100,11 @@
         <f>Soal!C4/Soal!B22</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>58</v>
       </c>
@@ -2065,15 +2115,16 @@
         <f>Soal!C3/((Soal!B33+Soal!C33)/2)</f>
         <v>0.55737704918032782</v>
       </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>59</v>
       </c>
@@ -2084,9 +2135,11 @@
         <f>Soal!B41/Soal!B33</f>
         <v>0.625</v>
       </c>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>60</v>
       </c>
@@ -2097,9 +2150,11 @@
         <f>Soal!B41/Soal!B47</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>61</v>
       </c>
@@ -2110,15 +2165,16 @@
         <f>Soal!D10/Soal!C11</f>
         <v>5.2857142857142856</v>
       </c>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>62</v>
       </c>
@@ -2129,9 +2185,11 @@
         <f>Soal!D14/Soal!C3</f>
         <v>0.10588235294117647</v>
       </c>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>63</v>
       </c>
@@ -2142,9 +2200,11 @@
         <f>Soal!D5/Soal!C3</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>64</v>
       </c>
@@ -2155,15 +2215,16 @@
         <f>Soal!D14/Soal!B33</f>
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>65</v>
       </c>
@@ -2174,9 +2235,11 @@
         <f>Soal!D14/Soal!B47</f>
         <v>0.15</v>
       </c>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>66</v>
       </c>
@@ -2187,9 +2250,11 @@
         <f>Soal!B44/Soal!D14</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>67</v>
       </c>
@@ -2200,7 +2265,9 @@
         <f>Soal!B46/Soal!D14</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2228,16 +2295,16 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="49">
         <v>2021</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="F2" s="49">
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="F2" s="52">
         <v>2022</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2255,7 +2322,7 @@
       </c>
       <c r="H3" s="24"/>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2441,12 +2508,12 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="I15" s="58">
+      <c r="I15" s="40">
         <f>(H14-H48)/100000</f>
         <v>6.2068965517241394E-4</v>
       </c>
@@ -2903,7 +2970,7 @@
         <v>662.06896551724139</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H48">
         <f>H14-(E48-D48)</f>
@@ -2968,31 +3035,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="49">
         <v>2021</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49">
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52">
         <v>2022</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="I2" s="52">
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="I2" s="55">
         <v>20.22</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3794,7 +3861,7 @@
       <c r="A11" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="41">
         <f>(B4+B9)/48</f>
         <v>8166666.666666667</v>
       </c>
@@ -4056,7 +4123,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -4068,13 +4135,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="60">
+      <c r="F6" s="32">
         <f>F5/F4*100</f>
         <v>5.6000000000000005</v>
       </c>
@@ -4084,13 +4151,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="61">
+      <c r="F7" s="22">
         <f>(270/360)*F6</f>
         <v>4.2</v>
       </c>
@@ -4100,7 +4167,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -4113,13 +4180,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="62">
+      <c r="F9" s="42">
         <f>((1+(0.042/(360/270)))^(360/270))-1</f>
         <v>4.2218976424512888E-2</v>
       </c>
@@ -4133,19 +4200,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF508C09-C8B2-43A4-BB25-24A3DDEA0A2C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
       <c r="B1" t="s">
         <v>111</v>
       </c>
@@ -4300,18 +4369,18 @@
         <v>116</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
